--- a/input/Inverse3_Gravity.xlsx
+++ b/input/Inverse3_Gravity.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -460,13 +460,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.07316820488551792</v>
+        <v>0.07316220184780846</v>
       </c>
       <c r="C2" t="n">
-        <v>6.463295095646902e-11</v>
+        <v>6.893845046377231e-11</v>
       </c>
       <c r="D2" t="n">
-        <v>4.808225956926045e-12</v>
+        <v>3.785670380641082e-12</v>
       </c>
     </row>
     <row r="3">
@@ -474,13 +474,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1402600265659709</v>
+        <v>0.1492751576917354</v>
       </c>
       <c r="C3" t="n">
-        <v>1.768475199315421e-11</v>
+        <v>1.641842548698402e-11</v>
       </c>
       <c r="D3" t="n">
-        <v>2.325232249436544e-12</v>
+        <v>1.608402642568462e-12</v>
       </c>
     </row>
     <row r="4">
@@ -488,13 +488,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1168954347744218</v>
+        <v>0.1342327798802501</v>
       </c>
       <c r="C4" t="n">
-        <v>7.444283284027795e-12</v>
+        <v>7.098803971480968e-12</v>
       </c>
       <c r="D4" t="n">
-        <v>9.505950543269834e-13</v>
+        <v>7.532708734793558e-13</v>
       </c>
     </row>
     <row r="5">
@@ -502,13 +502,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1192886293059668</v>
+        <v>0.09516638299361919</v>
       </c>
       <c r="C5" t="n">
-        <v>3.966137948253791e-12</v>
+        <v>3.999144734425883e-12</v>
       </c>
       <c r="D5" t="n">
-        <v>5.672257697935102e-13</v>
+        <v>5.593635506137449e-13</v>
       </c>
     </row>
     <row r="6">
@@ -516,13 +516,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.149928626550856</v>
+        <v>0.1293556144447252</v>
       </c>
       <c r="C6" t="n">
-        <v>2.748677819215931e-12</v>
+        <v>2.608919824226776e-12</v>
       </c>
       <c r="D6" t="n">
-        <v>3.244750203714867e-13</v>
+        <v>3.576458112233485e-13</v>
       </c>
     </row>
     <row r="7">
@@ -530,13 +530,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1073931513644437</v>
+        <v>0.06840164815886485</v>
       </c>
       <c r="C7" t="n">
-        <v>1.851929935127809e-12</v>
+        <v>1.800924621303047e-12</v>
       </c>
       <c r="D7" t="n">
-        <v>2.507381507182019e-13</v>
+        <v>9.107970217570611e-14</v>
       </c>
     </row>
     <row r="8">
@@ -544,13 +544,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.09983509373225564</v>
+        <v>0.1202209034306793</v>
       </c>
       <c r="C8" t="n">
-        <v>1.310006705384899e-12</v>
+        <v>1.312258098878103e-12</v>
       </c>
       <c r="D8" t="n">
-        <v>1.851922663691368e-13</v>
+        <v>1.471198072053214e-13</v>
       </c>
     </row>
     <row r="9">
@@ -558,13 +558,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.05646819642931492</v>
+        <v>0.07495653084902071</v>
       </c>
       <c r="C9" t="n">
-        <v>9.855695162413362e-13</v>
+        <v>1.061983234615559e-12</v>
       </c>
       <c r="D9" t="n">
-        <v>9.715954056360865e-14</v>
+        <v>8.300249088131099e-14</v>
       </c>
     </row>
     <row r="10">
@@ -572,13 +572,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1421043525631326</v>
+        <v>0.1034943423535781</v>
       </c>
       <c r="C10" t="n">
-        <v>8.517037401838118e-13</v>
+        <v>8.283359730879508e-13</v>
       </c>
       <c r="D10" t="n">
-        <v>9.10304258285875e-14</v>
+        <v>1.193411934089963e-13</v>
       </c>
     </row>
     <row r="11">
@@ -586,13 +586,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.09646391450742711</v>
+        <v>0.12282583880371</v>
       </c>
       <c r="C11" t="n">
-        <v>6.309137761163193e-13</v>
+        <v>6.909482715916617e-13</v>
       </c>
       <c r="D11" t="n">
-        <v>8.408422937082354e-14</v>
+        <v>6.525583682174036e-14</v>
       </c>
     </row>
   </sheetData>
